--- a/Doucment/聚餐基金账目.xlsx
+++ b/Doucment/聚餐基金账目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\LeetCodeFly\Doucment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1625B976-90FA-4385-8AA7-A6C10A79A9B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D35B1F-EAE7-44C7-8E25-0436794587E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>杨健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐赠1题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐媛媛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -479,6 +491,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doucment/聚餐基金账目.xlsx
+++ b/Doucment/聚餐基金账目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\LeetCodeFly\Doucment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D35B1F-EAE7-44C7-8E25-0436794587E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15904797-DE04-4857-AB53-C92DC220A7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>捐赠1题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤肉消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,14 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -163,6 +172,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,38 +459,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>43968</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -492,7 +507,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>43975</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -506,6 +521,23 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>43989</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Doucment/聚餐基金账目.xlsx
+++ b/Doucment/聚餐基金账目.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\LeetCodeFly\Doucment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15904797-DE04-4857-AB53-C92DC220A7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74272A64-861F-422D-96BA-723288A42E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,26 @@
   </si>
   <si>
     <t>集体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尚文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐赠2题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐赠1题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -540,6 +560,40 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>44003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>44003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doucment/聚餐基金账目.xlsx
+++ b/Doucment/聚餐基金账目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\LeetCodeFly\Doucment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74272A64-861F-422D-96BA-723288A42E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE4F186-5673-4EF6-907E-D3FB343844E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>杨健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐赠1题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐媛媛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -479,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -594,6 +606,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>44017</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doucment/聚餐基金账目.xlsx
+++ b/Doucment/聚餐基金账目.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\LeetCodeFly\Doucment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE4F186-5673-4EF6-907E-D3FB343844E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3602CC94-D32D-435B-AA54-F4CD58B38F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>徐媛媛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐赠1题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尚文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -491,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -623,6 +635,23 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>44052</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
